--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2848.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2848.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.171114583385283</v>
+        <v>1.232819676399231</v>
       </c>
       <c r="B1">
-        <v>2.28850078378653</v>
+        <v>1.895875096321106</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.19976806640625</v>
       </c>
       <c r="D1">
-        <v>2.319158634379716</v>
+        <v>3.165406942367554</v>
       </c>
       <c r="E1">
-        <v>1.228673294174013</v>
+        <v>1.178413510322571</v>
       </c>
     </row>
   </sheetData>
